--- a/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/ImportStationMappings/CadentBroadcastStationList_OwnershipMaxLength.xlsx
+++ b/Source/Tam/MaestroTests/SupportTests/Services.Broadcast.IntegrationTests/Files/ImportStationMappings/CadentBroadcastStationList_OwnershipMaxLength.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\sroibu\Source\Repos\Broadcast\Source\Tam\MaestroTests\SupportTests\Services.Broadcast.IntegrationTests\Files\ImportStationMappings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\broadcast\Source\Tam\MaestroTests\SupportTests\Services.Broadcast.IntegrationTests\Files\ImportStationMappings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{892D4EFC-C1B8-4E62-8339-CC9DD06357C3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1C2526-435C-4122-AEA4-3F835685FEFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{4A9EC11D-1DEC-477A-A2B3-C5EC15B2E530}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27375" windowHeight="16440" xr2:uid="{4A9EC11D-1DEC-477A-A2B3-C5EC15B2E530}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>SigmaCallLetters</t>
   </si>
   <si>
-    <t>Affiliation Mismatch Note</t>
-  </si>
-  <si>
     <t>CLTV</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>OwnershipGroupName</t>
   </si>
   <si>
-    <t>SalesGroupName</t>
-  </si>
-  <si>
     <t>Sales group 1</t>
   </si>
   <si>
@@ -103,6 +97,12 @@
   </si>
   <si>
     <t>Some ownership name longer than 100 chars this is just to fill in the rest of the string to 100 chars</t>
+  </si>
+  <si>
+    <t>IsTrueIND</t>
+  </si>
+  <si>
+    <t>RepFirm</t>
   </si>
 </sst>
 </file>
@@ -489,9 +489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC98319-C6D9-4A0F-8766-1F87946705E8}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -510,28 +508,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>21</v>
+      <c r="J1" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -539,25 +537,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H2" s="1"/>
-      <c r="I2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -565,21 +563,21 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>22</v>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -587,29 +585,29 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>22</v>
+      <c r="I4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -617,25 +615,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5" s="1"/>
-      <c r="I5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>22</v>
+      <c r="I5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
